--- a/Week 1 -Modulo 1/Esercizi Excel/QUARTO ESERCIZIO.xlsx
+++ b/Week 1 -Modulo 1/Esercizi Excel/QUARTO ESERCIZIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\DAProject\Week 1 -Modulo 1\Esercizi Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC98F800-6DD6-4E87-8D0C-940980886778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF695D-118F-41B0-9F89-47B8D94084EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="236">
   <si>
     <t>mese</t>
   </si>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t>Trovato</t>
+  </si>
+  <si>
+    <t>Totale</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1055,6 +1058,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1070,12 +1078,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1090,14 +1094,7 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1423,18 +1420,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -1482,7 +1479,7 @@
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="32">
         <f>SUMIFS(C:C,B:B,D7)</f>
         <v>22827000</v>
       </c>
@@ -1500,7 +1497,7 @@
       <c r="D8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="32">
         <f t="shared" ref="E8:E9" si="0">SUMIFS(C:C,B:B,D8)</f>
         <v>5178000</v>
       </c>
@@ -1518,7 +1515,7 @@
       <c r="D9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
         <v>24668000</v>
       </c>
@@ -1612,7 +1609,7 @@
       <c r="D15" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="32">
         <f>SUM(impo)</f>
         <v>171416000</v>
       </c>
@@ -1630,7 +1627,7 @@
       <c r="D16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="32">
         <f>AVERAGE(C7:C340)</f>
         <v>511413.17365269462</v>
       </c>
@@ -5252,7 +5249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H14"/>
     </sheetView>
   </sheetViews>
@@ -5263,7 +5260,7 @@
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
@@ -5284,6 +5281,9 @@
       <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="F1" s="40" t="s">
+        <v>235</v>
+      </c>
       <c r="G1" s="8" t="s">
         <v>219</v>
       </c>
@@ -5304,6 +5304,10 @@
       <c r="E2" s="3">
         <v>16</v>
       </c>
+      <c r="F2" s="41">
+        <f>D2+E2</f>
+        <v>50016</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -5321,12 +5325,16 @@
       <c r="E3" s="3">
         <v>29</v>
       </c>
+      <c r="F3" s="41">
+        <f t="shared" ref="F3:F66" si="0">D3+E3</f>
+        <v>29999</v>
+      </c>
       <c r="G3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="22">
-        <f>SUMIFS(D:D,C:C,G3)</f>
-        <v>611780</v>
+        <f>SUMIFS(F:F,C:C,G3)</f>
+        <v>611998</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5345,12 +5353,16 @@
       <c r="E4" s="3">
         <v>21</v>
       </c>
+      <c r="F4" s="41">
+        <f t="shared" si="0"/>
+        <v>27581</v>
+      </c>
       <c r="G4" s="16" t="s">
         <v>94</v>
       </c>
       <c r="H4" s="22">
-        <f t="shared" ref="H4:H14" si="0">SUMIFS(D:D,C:C,G4)</f>
-        <v>30860</v>
+        <f t="shared" ref="H4:H6" si="1">SUMIFS(F:F,C:C,G4)</f>
+        <v>30962</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5369,12 +5381,16 @@
       <c r="E5" s="3">
         <v>29</v>
       </c>
+      <c r="F5" s="41">
+        <f t="shared" si="0"/>
+        <v>43529</v>
+      </c>
       <c r="G5" s="16" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="22">
-        <f t="shared" si="0"/>
-        <v>54000</v>
+        <f t="shared" si="1"/>
+        <v>54074</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5393,12 +5409,16 @@
       <c r="E6" s="3">
         <v>15</v>
       </c>
+      <c r="F6" s="41">
+        <f t="shared" si="0"/>
+        <v>13515</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>88</v>
       </c>
       <c r="H6" s="22">
-        <f t="shared" si="0"/>
-        <v>6765600</v>
+        <f t="shared" si="1"/>
+        <v>6765662</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5417,6 +5437,10 @@
       <c r="E7" s="3">
         <v>22</v>
       </c>
+      <c r="F7" s="41">
+        <f t="shared" si="0"/>
+        <v>50822</v>
+      </c>
       <c r="G7" s="18"/>
       <c r="H7" s="22"/>
     </row>
@@ -5436,12 +5460,16 @@
       <c r="E8" s="3">
         <v>21</v>
       </c>
+      <c r="F8" s="41">
+        <f t="shared" si="0"/>
+        <v>98471</v>
+      </c>
       <c r="G8" s="19" t="s">
         <v>105</v>
       </c>
       <c r="H8" s="22">
-        <f>SUMIFS(D:D,B:B,G8)</f>
-        <v>73450</v>
+        <f>SUMIFS(F:F,B:B,G8)</f>
+        <v>73489</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5460,12 +5488,16 @@
       <c r="E9" s="3">
         <v>18</v>
       </c>
+      <c r="F9" s="41">
+        <f t="shared" si="0"/>
+        <v>45908</v>
+      </c>
       <c r="G9" s="20" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="22">
-        <f t="shared" ref="H9:H14" si="1">SUMIFS(D:D,B:B,G9)</f>
-        <v>50800</v>
+        <f t="shared" ref="H9:H14" si="2">SUMIFS(F:F,B:B,G9)</f>
+        <v>50822</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5484,12 +5516,16 @@
       <c r="E10" s="3">
         <v>23</v>
       </c>
+      <c r="F10" s="41">
+        <f t="shared" si="0"/>
+        <v>7973</v>
+      </c>
       <c r="G10" s="20" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="22">
-        <f t="shared" si="1"/>
-        <v>98450</v>
+        <f t="shared" si="2"/>
+        <v>98471</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5508,12 +5544,16 @@
       <c r="E11" s="3">
         <v>24</v>
       </c>
+      <c r="F11" s="41">
+        <f t="shared" si="0"/>
+        <v>87474</v>
+      </c>
       <c r="G11" s="20" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="22">
-        <f t="shared" si="1"/>
-        <v>7950</v>
+        <f t="shared" si="2"/>
+        <v>7973</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5532,12 +5572,16 @@
       <c r="E12" s="3">
         <v>27</v>
       </c>
+      <c r="F12" s="41">
+        <f t="shared" si="0"/>
+        <v>295027</v>
+      </c>
       <c r="G12" s="20" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" si="1"/>
-        <v>283000</v>
+        <f t="shared" si="2"/>
+        <v>283071</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5556,12 +5600,16 @@
       <c r="E13" s="3">
         <v>15</v>
       </c>
+      <c r="F13" s="41">
+        <f t="shared" si="0"/>
+        <v>348995</v>
+      </c>
       <c r="G13" s="20" t="s">
         <v>89</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" si="1"/>
-        <v>107700</v>
+        <f t="shared" si="2"/>
+        <v>107734</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5580,12 +5628,16 @@
       <c r="E14" s="3">
         <v>17</v>
       </c>
+      <c r="F14" s="41">
+        <f t="shared" si="0"/>
+        <v>127507</v>
+      </c>
       <c r="G14" s="21" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" si="1"/>
-        <v>27270</v>
+        <f t="shared" si="2"/>
+        <v>27284</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -5604,6 +5656,10 @@
       <c r="E15" s="3">
         <v>13</v>
       </c>
+      <c r="F15" s="41">
+        <f t="shared" si="0"/>
+        <v>49413</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -5621,8 +5677,12 @@
       <c r="E16" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="41">
+        <f t="shared" si="0"/>
+        <v>201014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>36573</v>
       </c>
@@ -5638,8 +5698,12 @@
       <c r="E17" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="41">
+        <f t="shared" si="0"/>
+        <v>1368028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>36576</v>
       </c>
@@ -5655,8 +5719,12 @@
       <c r="E18" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="41">
+        <f t="shared" si="0"/>
+        <v>36866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>36580</v>
       </c>
@@ -5672,8 +5740,12 @@
       <c r="E19" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="41">
+        <f t="shared" si="0"/>
+        <v>151513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>36589</v>
       </c>
@@ -5689,8 +5761,12 @@
       <c r="E20" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="41">
+        <f t="shared" si="0"/>
+        <v>13520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>36593</v>
       </c>
@@ -5706,8 +5782,12 @@
       <c r="E21" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="41">
+        <f t="shared" si="0"/>
+        <v>17018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>36594</v>
       </c>
@@ -5723,8 +5803,12 @@
       <c r="E22" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="41">
+        <f t="shared" si="0"/>
+        <v>35916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>36594</v>
       </c>
@@ -5740,8 +5824,12 @@
       <c r="E23" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="41">
+        <f t="shared" si="0"/>
+        <v>27284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>36594</v>
       </c>
@@ -5757,8 +5845,12 @@
       <c r="E24" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="41">
+        <f t="shared" si="0"/>
+        <v>13414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>36595</v>
       </c>
@@ -5774,8 +5866,12 @@
       <c r="E25" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="41">
+        <f t="shared" si="0"/>
+        <v>19017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>36595</v>
       </c>
@@ -5791,8 +5887,12 @@
       <c r="E26" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="41">
+        <f t="shared" si="0"/>
+        <v>71818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>36595</v>
       </c>
@@ -5808,8 +5908,12 @@
       <c r="E27" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="41">
+        <f t="shared" si="0"/>
+        <v>12294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>36595</v>
       </c>
@@ -5825,8 +5929,12 @@
       <c r="E28" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="41">
+        <f t="shared" si="0"/>
+        <v>14687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>36596</v>
       </c>
@@ -5842,8 +5950,12 @@
       <c r="E29" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="41">
+        <f t="shared" si="0"/>
+        <v>163518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>36596</v>
       </c>
@@ -5859,8 +5971,12 @@
       <c r="E30" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="41">
+        <f t="shared" si="0"/>
+        <v>183926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>36596</v>
       </c>
@@ -5876,8 +5992,12 @@
       <c r="E31" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="41">
+        <f t="shared" si="0"/>
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>36596</v>
       </c>
@@ -5893,8 +6013,12 @@
       <c r="E32" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="41">
+        <f t="shared" si="0"/>
+        <v>10747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>36596</v>
       </c>
@@ -5910,8 +6034,12 @@
       <c r="E33" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="41">
+        <f t="shared" si="0"/>
+        <v>11235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>36596</v>
       </c>
@@ -5927,8 +6055,12 @@
       <c r="E34" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="41">
+        <f t="shared" si="0"/>
+        <v>127970</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>36597</v>
       </c>
@@ -5944,8 +6076,12 @@
       <c r="E35" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="41">
+        <f t="shared" si="0"/>
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>36597</v>
       </c>
@@ -5961,8 +6097,12 @@
       <c r="E36" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="41">
+        <f t="shared" si="0"/>
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36598</v>
       </c>
@@ -5978,8 +6118,12 @@
       <c r="E37" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="41">
+        <f t="shared" si="0"/>
+        <v>127511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36598</v>
       </c>
@@ -5995,8 +6139,12 @@
       <c r="E38" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="41">
+        <f t="shared" si="0"/>
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>36598</v>
       </c>
@@ -6012,8 +6160,12 @@
       <c r="E39" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="41">
+        <f t="shared" si="0"/>
+        <v>50015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>36600</v>
       </c>
@@ -6029,8 +6181,12 @@
       <c r="E40" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="41">
+        <f t="shared" si="0"/>
+        <v>16674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>36603</v>
       </c>
@@ -6046,8 +6202,12 @@
       <c r="E41" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="41">
+        <f t="shared" si="0"/>
+        <v>87318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>36604</v>
       </c>
@@ -6063,8 +6223,12 @@
       <c r="E42" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="41">
+        <f t="shared" si="0"/>
+        <v>2425011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>36608</v>
       </c>
@@ -6080,8 +6244,12 @@
       <c r="E43" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="41">
+        <f t="shared" si="0"/>
+        <v>18251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>36609</v>
       </c>
@@ -6097,8 +6265,12 @@
       <c r="E44" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="41">
+        <f t="shared" si="0"/>
+        <v>78555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>36609</v>
       </c>
@@ -6114,8 +6286,12 @@
       <c r="E45" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="41">
+        <f t="shared" si="0"/>
+        <v>21018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>36612</v>
       </c>
@@ -6131,8 +6307,12 @@
       <c r="E46" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="41">
+        <f t="shared" si="0"/>
+        <v>34916</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>36614</v>
       </c>
@@ -6148,8 +6328,12 @@
       <c r="E47" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="41">
+        <f t="shared" si="0"/>
+        <v>8022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>36614</v>
       </c>
@@ -6165,8 +6349,12 @@
       <c r="E48" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="41">
+        <f t="shared" si="0"/>
+        <v>24687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>36616</v>
       </c>
@@ -6182,8 +6370,12 @@
       <c r="E49" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="41">
+        <f t="shared" si="0"/>
+        <v>22468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>36622</v>
       </c>
@@ -6199,8 +6391,12 @@
       <c r="E50" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="41">
+        <f t="shared" si="0"/>
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>36624</v>
       </c>
@@ -6216,8 +6412,12 @@
       <c r="E51" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="41">
+        <f t="shared" si="0"/>
+        <v>55611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>36629</v>
       </c>
@@ -6233,8 +6433,12 @@
       <c r="E52" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="41">
+        <f t="shared" si="0"/>
+        <v>84521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>36632</v>
       </c>
@@ -6250,8 +6454,12 @@
       <c r="E53" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="41">
+        <f t="shared" si="0"/>
+        <v>51821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>36632</v>
       </c>
@@ -6267,8 +6475,12 @@
       <c r="E54" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="41">
+        <f t="shared" si="0"/>
+        <v>31016</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>36637</v>
       </c>
@@ -6284,8 +6496,12 @@
       <c r="E55" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="41">
+        <f t="shared" si="0"/>
+        <v>81525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>36637</v>
       </c>
@@ -6301,8 +6517,12 @@
       <c r="E56" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="41">
+        <f t="shared" si="0"/>
+        <v>183918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>36637</v>
       </c>
@@ -6318,8 +6538,12 @@
       <c r="E57" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="41">
+        <f t="shared" si="0"/>
+        <v>13518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>36638</v>
       </c>
@@ -6335,8 +6559,12 @@
       <c r="E58" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="41">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>36640</v>
       </c>
@@ -6352,8 +6580,12 @@
       <c r="E59" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="41">
+        <f t="shared" si="0"/>
+        <v>36323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>36642</v>
       </c>
@@ -6369,8 +6601,12 @@
       <c r="E60" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="41">
+        <f t="shared" si="0"/>
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>36644</v>
       </c>
@@ -6386,8 +6622,12 @@
       <c r="E61" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="41">
+        <f t="shared" si="0"/>
+        <v>18021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>36645</v>
       </c>
@@ -6403,8 +6643,12 @@
       <c r="E62" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="41">
+        <f t="shared" si="0"/>
+        <v>8748</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>36645</v>
       </c>
@@ -6420,8 +6664,12 @@
       <c r="E63" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="41">
+        <f t="shared" si="0"/>
+        <v>19012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>36649</v>
       </c>
@@ -6437,8 +6685,12 @@
       <c r="E64" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="41">
+        <f t="shared" si="0"/>
+        <v>2425021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>36651</v>
       </c>
@@ -6454,8 +6706,12 @@
       <c r="E65" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="41">
+        <f t="shared" si="0"/>
+        <v>1860019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>36652</v>
       </c>
@@ -6471,8 +6727,12 @@
       <c r="E66" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="41">
+        <f t="shared" si="0"/>
+        <v>6583</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>36653</v>
       </c>
@@ -6488,8 +6748,12 @@
       <c r="E67" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="41">
+        <f t="shared" ref="F67:F80" si="3">D67+E67</f>
+        <v>14016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>36665</v>
       </c>
@@ -6505,8 +6769,12 @@
       <c r="E68" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="41">
+        <f t="shared" si="3"/>
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>36666</v>
       </c>
@@ -6522,8 +6790,12 @@
       <c r="E69" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="41">
+        <f t="shared" si="3"/>
+        <v>17967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>36666</v>
       </c>
@@ -6539,8 +6811,12 @@
       <c r="E70" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="41">
+        <f t="shared" si="3"/>
+        <v>32340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>36667</v>
       </c>
@@ -6556,8 +6832,12 @@
       <c r="E71" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="41">
+        <f t="shared" si="3"/>
+        <v>27369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>36672</v>
       </c>
@@ -6573,8 +6853,12 @@
       <c r="E72" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="41">
+        <f t="shared" si="3"/>
+        <v>15020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>36681</v>
       </c>
@@ -6590,8 +6874,12 @@
       <c r="E73" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="41">
+        <f t="shared" si="3"/>
+        <v>13521</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>36682</v>
       </c>
@@ -6607,8 +6895,12 @@
       <c r="E74" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="41">
+        <f t="shared" si="3"/>
+        <v>8622</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>36685</v>
       </c>
@@ -6624,8 +6916,12 @@
       <c r="E75" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="41">
+        <f t="shared" si="3"/>
+        <v>15994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>36686</v>
       </c>
@@ -6641,8 +6937,12 @@
       <c r="E76" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="41">
+        <f t="shared" si="3"/>
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>36697</v>
       </c>
@@ -6658,8 +6958,12 @@
       <c r="E77" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="41">
+        <f t="shared" si="3"/>
+        <v>40667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>36700</v>
       </c>
@@ -6675,8 +6979,12 @@
       <c r="E78" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="41">
+        <f t="shared" si="3"/>
+        <v>50300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>36700</v>
       </c>
@@ -6692,8 +7000,12 @@
       <c r="E79" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="41">
+        <f t="shared" si="3"/>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>36705</v>
       </c>
@@ -6708,6 +7020,10 @@
       </c>
       <c r="E80" s="3">
         <v>28</v>
+      </c>
+      <c r="F80" s="41">
+        <f t="shared" si="3"/>
+        <v>4978</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +7056,7 @@
     <col min="3" max="3" width="14.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="26" customWidth="1"/>
     <col min="8" max="12" width="8.7109375" style="26"/>
     <col min="13" max="13" width="28.7109375" style="26" customWidth="1"/>
@@ -6763,7 +7079,7 @@
       <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="33" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6787,14 +7103,14 @@
         <f>IF(AND(A2=$A$2,C2=$C$3,E2&gt;10),"TROVATO","")</f>
         <v/>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
@@ -6816,12 +7132,12 @@
         <f>IF(AND(A3=$A$2,C3=$C$3,E3&gt;10),"TROVATO","")</f>
         <v>TROVATO</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
@@ -6843,12 +7159,12 @@
         <f t="shared" ref="F4:F24" si="0">IF(AND(A4=$A$2,C4=$C$3,E4&gt;10),"TROVATO","")</f>
         <v/>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
@@ -6870,12 +7186,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
@@ -6897,12 +7213,12 @@
         <f t="shared" si="0"/>
         <v>TROVATO</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
@@ -6924,12 +7240,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
@@ -6951,12 +7267,12 @@
         <f t="shared" si="0"/>
         <v>TROVATO</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
@@ -7306,7 +7622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7375,7 +7691,7 @@
       <c r="B5" s="30">
         <v>5</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="34">
         <f>AVERAGE(B2:B110)</f>
         <v>115.26605504587155</v>
       </c>
